--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1100,22 +1100,22 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>nmc32yf@yopmail.com</t>
+          <t>qcd3srd@yopmail.com</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>TestGSiFe</t>
+          <t>TestXDfTP</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TestzJWYw Solutions LLC</t>
+          <t>TestofiHw Innovations LLC</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>9336703658</t>
+          <t>6266708816</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19200" windowHeight="6830" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21480" windowHeight="11730" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -32,10 +32,36 @@
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <color rgb="FF737373"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <color rgb="FF212121"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="10.5"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -65,14 +91,6 @@
       <charset val="134"/>
       <color theme="1"/>
       <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,135 +575,135 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -696,34 +714,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,27 +1134,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="28" customHeight="1"/>
   <cols>
     <col width="28" customWidth="1" style="1" min="1" max="2"/>
-    <col width="32.5454545454545" customWidth="1" style="1" min="3" max="3"/>
+    <col width="32.5428571428571" customWidth="1" style="1" min="3" max="3"/>
     <col width="17" customWidth="1" style="1" min="4" max="4"/>
-    <col width="25.4545454545455" customWidth="1" style="1" min="5" max="5"/>
+    <col width="27.5714285714286" customWidth="1" style="1" min="5" max="5"/>
     <col width="9" customWidth="1" style="1" min="6" max="7"/>
-    <col width="34.2727272727273" customWidth="1" style="1" min="8" max="8"/>
-    <col width="23.9090909090909" customWidth="1" style="1" min="9" max="9"/>
-    <col width="12.5454545454545" customWidth="1" style="1" min="10" max="10"/>
-    <col width="28.8181818181818" customWidth="1" style="1" min="11" max="11"/>
-    <col width="20.5454545454545" customWidth="1" style="1" min="12" max="12"/>
-    <col width="12.4545454545455" customWidth="1" style="1" min="13" max="13"/>
+    <col width="34.2761904761905" customWidth="1" style="1" min="8" max="8"/>
+    <col width="23.9047619047619" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12.5428571428571" customWidth="1" style="1" min="10" max="10"/>
+    <col width="28.8190476190476" customWidth="1" style="1" min="11" max="11"/>
+    <col width="20.5428571428571" customWidth="1" style="1" min="12" max="12"/>
+    <col width="12.4571428571429" customWidth="1" style="1" min="13" max="13"/>
     <col width="9" customWidth="1" style="1" min="14" max="32"/>
-    <col width="22.5454545454545" customWidth="1" style="1" min="33" max="16384"/>
+    <col width="22.5428571428571" customWidth="1" style="1" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1165,12 +1188,12 @@
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J1" s="8" t="inlineStr">
+      <c r="J1" s="13" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K1" s="8" t="inlineStr">
+      <c r="K1" s="13" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
@@ -1179,30 +1202,28 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>zlnh927@yopmail.com</t>
+          <t>pru1coa@yopmail.com</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Yara Technologies Enterprises</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>8224817924</t>
-        </is>
+          <t>Rebecca Creators Group</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>7032690832</v>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>empmo33nhq@yopmail.com</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
+          <t>emplrtqv5h@yopmail.com</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>TestaaoIV Innovations Inc.</t>
         </is>
@@ -1212,12 +1233,12 @@
           <t>donu1ql@mailcatch.com</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>TestWFmoD</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>personalgze2kjn@mailcatch.com</t>
         </is>
@@ -1227,7 +1248,7 @@
           <t>SEND Conection OF(display connection)</t>
         </is>
       </c>
-      <c r="M2" s="9" t="inlineStr">
+      <c r="M2" s="14" t="inlineStr">
         <is>
           <t>manufacture</t>
         </is>
@@ -1254,32 +1275,32 @@
           <t>Phone</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>TestkVqcq Services LLC</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>qaq1rj2@mailcatch.com</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>TestHYXKv</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>personaluxb064i@mailcatch.com</t>
         </is>
       </c>
-      <c r="L3" s="10" t="inlineStr">
+      <c r="L3" s="15" t="inlineStr">
         <is>
           <t>Connection(display OF)</t>
         </is>
       </c>
-      <c r="M3" s="9" t="inlineStr">
+      <c r="M3" s="14" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
@@ -1306,27 +1327,27 @@
           <t>7405505882</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>TestWQZPV Solutions Enterprises</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>bjqvi6d@mailcatch.com</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>TestWIhFZ</t>
         </is>
       </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>personalu6fw7w7@mailcatch.com</t>
         </is>
       </c>
-      <c r="M4" s="9" t="inlineStr">
+      <c r="M4" s="14" t="inlineStr">
         <is>
           <t>vendor</t>
         </is>
@@ -1358,44 +1379,44 @@
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>TestEkOYP Systems Group</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>l38a8ij@mailcatch.com</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>Testlipvn</t>
         </is>
       </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>personaluc3qcn4@mailcatch.com</t>
         </is>
       </c>
-      <c r="M5" s="9" t="inlineStr">
+      <c r="M5" s="14" t="inlineStr">
         <is>
           <t>share holder</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>TestNUWPF Creators Inc.</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>jgpt835@yopmail.com</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Testglunc</t>
         </is>
@@ -1405,7 +1426,7 @@
           <t>8290095671</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>personalptqaczb@yopmail.com</t>
         </is>
@@ -1437,44 +1458,40 @@
           <t>Email address</t>
         </is>
       </c>
-      <c r="I7" s="11" t="n"/>
-      <c r="J7" s="11" t="n"/>
-      <c r="K7" s="11" t="n"/>
+      <c r="I7" s="16" t="n"/>
+      <c r="J7" s="16" t="n"/>
+      <c r="K7" s="16" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Testssjpm</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>personalrebdzwd@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>93073</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>7145309547</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>emprebdzwd@yopmail.com</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>personallrtqv5h@yopmail.com</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>97854</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>9192623865</v>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>emplrtqv5h@yopmail.com</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
         <is>
           <t>test_ListedCompanyAddEmp.py</t>
         </is>
       </c>
-      <c r="I8" s="12" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="13" t="n"/>
+      <c r="I8" s="17" t="n"/>
+      <c r="J8" s="18" t="n"/>
+      <c r="K8" s="18" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1512,12 +1529,12 @@
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J9" s="8" t="inlineStr">
+      <c r="J9" s="13" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K9" s="8" t="inlineStr">
+      <c r="K9" s="13" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
@@ -1529,7 +1546,7 @@
           <t>All Company</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>alltest@yopmail.com</t>
         </is>
@@ -1549,22 +1566,22 @@
           <t>TestNkzSC20@yopmail.com</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>Olivia Solutions Private Limited</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>v6xvrsx@mailcatch.com</t>
         </is>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>personalpe0cgo4@mailcatch.com</t>
         </is>
@@ -1573,31 +1590,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>personalve9d8uu@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>90692</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6331148960</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>empve9d8uu@yopmail.com</t>
-        </is>
-      </c>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="13" t="n"/>
+          <t>Neon</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>personalzxcv9@yopmail.com</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>98788</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7973869864</v>
+      </c>
+      <c r="E11" s="10" t="inlineStr">
+        <is>
+          <t>empzxcv9@yopmail.com</t>
+        </is>
+      </c>
+      <c r="J11" s="18" t="n"/>
+      <c r="K11" s="18" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1675,16 +1688,32 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="E18" s="11" t="n"/>
+    </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
       </c>
+      <c r="C20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CertificateXXPHJ</t>
+        </is>
+      </c>
+      <c r="C21" s="12" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" tooltip="mailto:alltest@yopmail.com" display="alltest@yopmail.com" r:id="rId1"/>
+    <hyperlink ref="A2" tooltip="mailto:pru1coa@yopmail.com" display="pru1coa@yopmail.com" r:id="rId1"/>
+    <hyperlink ref="I2" tooltip="mailto:donu1ql@mailcatch.com" display="donu1ql@mailcatch.com" r:id="rId2"/>
+    <hyperlink ref="B8" tooltip="mailto:personallrtqv5h@yopmail.com" display="personallrtqv5h@yopmail.com" r:id="rId3"/>
+    <hyperlink ref="E8" tooltip="mailto:emplrtqv5h@yopmail.com" display="emplrtqv5h@yopmail.com" r:id="rId4"/>
+    <hyperlink ref="B10" tooltip="mailto:alltest@yopmail.com" display="alltest@yopmail.com" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="1"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -3,28 +3,30 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19200" windowHeight="6830" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -75,144 +77,8 @@
       <u val="single"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -233,192 +99,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -441,251 +127,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -705,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -714,69 +161,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1102,6 +510,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1111,30 +520,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="28" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.5703125" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
     <col width="28" customWidth="1" style="1" min="1" max="2"/>
-    <col width="32.5454545454545" customWidth="1" style="1" min="3" max="3"/>
+    <col width="32.5703125" customWidth="1" style="1" min="3" max="3"/>
     <col width="17" customWidth="1" style="1" min="4" max="4"/>
-    <col width="25.4545454545455" customWidth="1" style="1" min="5" max="5"/>
+    <col width="25.42578125" customWidth="1" style="1" min="5" max="5"/>
     <col width="9" customWidth="1" style="1" min="6" max="7"/>
-    <col width="34.2727272727273" customWidth="1" style="1" min="8" max="8"/>
-    <col width="23.9090909090909" customWidth="1" style="1" min="9" max="9"/>
-    <col width="12.5454545454545" customWidth="1" style="1" min="10" max="10"/>
-    <col width="28.8181818181818" customWidth="1" style="1" min="11" max="11"/>
-    <col width="20.5454545454545" customWidth="1" style="1" min="12" max="12"/>
-    <col width="12.4545454545455" customWidth="1" style="1" min="13" max="13"/>
+    <col width="34.28515625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="23.85546875" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12.5703125" customWidth="1" style="1" min="10" max="10"/>
+    <col width="28.85546875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="20.5703125" customWidth="1" style="1" min="12" max="12"/>
+    <col width="12.42578125" customWidth="1" style="1" min="13" max="13"/>
     <col width="9" customWidth="1" style="1" min="14" max="32"/>
-    <col width="22.5454545454545" customWidth="1" style="1" min="33" max="16384"/>
+    <col width="22.5703125" customWidth="1" style="1" min="33" max="34"/>
+    <col width="22.5703125" customWidth="1" style="1" min="35" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Company Sign Up Email</t>
@@ -1176,31 +586,24 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>zlnh927@yopmail.com</t>
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mahindra@yopmail.com</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>Anand Mahindra</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Yara Technologies Enterprises</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>8224817924</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>empmo33nhq@yopmail.com</t>
-        </is>
+          <t>Mahindra</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>7032690832</v>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
@@ -1212,14 +615,14 @@
           <t>donu1ql@mailcatch.com</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>TestWFmoD</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>personalgze2kjn@mailcatch.com</t>
+      <c r="J2" s="17" t="inlineStr">
+        <is>
+          <t>Krishna</t>
+        </is>
+      </c>
+      <c r="K2" s="14" t="inlineStr">
+        <is>
+          <t>employeeone@yopmail.com</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -1233,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Individual Sign Up Email</t>
@@ -1264,14 +667,14 @@
           <t>qaq1rj2@mailcatch.com</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>TestHYXKv</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>personaluxb064i@mailcatch.com</t>
+      <c r="J3" s="17" t="inlineStr">
+        <is>
+          <t>Anand</t>
+        </is>
+      </c>
+      <c r="K3" s="14" t="inlineStr">
+        <is>
+          <t>employeetwo@yopmail.com</t>
         </is>
       </c>
       <c r="L3" s="10" t="inlineStr">
@@ -1285,7 +688,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="30" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>q6484lk@yopmail.com</t>
@@ -1316,75 +719,75 @@
           <t>bjqvi6d@mailcatch.com</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>TestWIhFZ</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>personalu6fw7w7@mailcatch.com</t>
+      <c r="J4" s="17" t="inlineStr">
+        <is>
+          <t>Badhri</t>
+        </is>
+      </c>
+      <c r="K4" s="14" t="inlineStr">
+        <is>
+          <t>employeethree@yopmail.com</t>
         </is>
       </c>
       <c r="M4" s="9" t="inlineStr">
         <is>
+          <t>share holder</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>company name (Manually) - Emp sign up without domain</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Listed company Email (Manually)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Fullname</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Emp email id</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>TestEkOYP Systems Group</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>l38a8ij@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t>Hamesh</t>
+        </is>
+      </c>
+      <c r="K5" s="14" t="inlineStr">
+        <is>
+          <t>employeefour@yopmail.com</t>
+        </is>
+      </c>
+      <c r="M5" s="9" t="inlineStr">
+        <is>
           <t>vendor</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>company name (Manually) - Emp sign up without domain</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Listed company Email (Manually)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Fullname</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Emp email id</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>TestEkOYP Systems Group</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>l38a8ij@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>Testlipvn</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>personaluc3qcn4@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>share holder</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+    <row r="6" ht="30" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>TestNUWPF Creators Inc.</t>
@@ -1411,7 +814,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="27.95" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Added Employees from inside the company - Emp name</t>
@@ -1441,30 +844,26 @@
       <c r="J7" s="11" t="n"/>
       <c r="K7" s="11" t="n"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Testssjpm</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>personalrebdzwd@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>93073</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>7145309547</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>emprebdzwd@yopmail.com</t>
+    <row r="8" ht="27.95" customHeight="1">
+      <c r="A8" s="15" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>personallrtqv5h@yopmail.com</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>97854</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>9192623865</v>
+      </c>
+      <c r="E8" s="14" t="inlineStr">
+        <is>
+          <t>emplrtqv5h@yopmail.com</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
@@ -1476,7 +875,7 @@
       <c r="J8" s="13" t="n"/>
       <c r="K8" s="13" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>company name (Manually) - Emp sign up with domain</t>
@@ -1523,7 +922,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="30" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>All Company</t>
@@ -1570,36 +969,32 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
+    <row r="11" ht="27.95" customHeight="1">
+      <c r="A11" s="16" t="inlineStr">
+        <is>
+          <t>Ava</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>personalve9d8uu@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>90692</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6331148960</t>
-        </is>
+          <t>personalrpzxjp0@yopmail.com</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>97854</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9192623865</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>empve9d8uu@yopmail.com</t>
+          <t>emprpzxjp0@yopmail.com</t>
         </is>
       </c>
       <c r="J11" s="13" t="n"/>
       <c r="K11" s="13" t="n"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Anand(Company name</t>
@@ -1626,7 +1021,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Mahindra</t>
@@ -1651,17 +1046,17 @@
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15" customHeight="1">
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>j@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>software Bryan</t>
+          <t>software Peyton</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -1671,22 +1066,49 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>MarketingBryan</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+          <t>MarketingPeyton</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
+      </c>
+    </row>
+    <row r="22" ht="27.95" customHeight="1">
+      <c r="C22" s="14" t="inlineStr">
+        <is>
+          <t>pru1coa@yopmail.com</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>Rebecca Creators Group</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>7032690832</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" tooltip="mailto:alltest@yopmail.com" display="alltest@yopmail.com" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="B10" tooltip="mailto:alltest@yopmail.com" r:id="rId7"/>
+    <hyperlink ref="C22" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1056,7 +1056,7 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>software Peyton</t>
+          <t>software Riley</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>MarketingPeyton</t>
+          <t>MarketingRiley</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -46,19 +46,16 @@
     <t xml:space="preserve">Emp Email</t>
   </si>
   <si>
-    <t xml:space="preserve">tbchnp8@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemma Systems Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6411993924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empmo33nhq@yopmail.com</t>
+    <t xml:space="preserve">roji9fd@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peyton Technologies LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8026219776</t>
   </si>
   <si>
     <t xml:space="preserve">TestaaoIV Innovations Inc.</t>
@@ -156,16 +153,16 @@
     <t xml:space="preserve">employeefour@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Kylie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nxyonio@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lyszkmp@mailcatch.com</t>
+    <t xml:space="preserve">Violet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r80ia56@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i3mrtnu@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Added Employees from inside the company - Emp name</t>
@@ -180,19 +177,19 @@
     <t xml:space="preserve">Email address</t>
   </si>
   <si>
-    <t xml:space="preserve">Luna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personaln49x3nn@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6463891587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empn49x3nn@mailcatch.com</t>
+    <t xml:space="preserve">Jasmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personalda5kni7@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8872304056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empda5kni7@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">test_ListedCompanyAddEmp.py</t>
@@ -211,13 +208,13 @@
     <t xml:space="preserve">hd4hdqq@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Wyatt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6900741648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ejtkhnk20@mailcatch.com</t>
+    <t xml:space="preserve">Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6466059665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i0k4w1z20@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Olivia Solutions Private Limited</t>
@@ -232,19 +229,19 @@
     <t xml:space="preserve">personalpe0cgo4@mailcatch.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Quincy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personalmwjmf7o@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8147620238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empmwjmf7o@mailcatch.com</t>
+    <t xml:space="preserve">Victor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personalebr63dt@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8161326310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empebr63dt@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Anand(Company name</t>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t xml:space="preserve">Certification name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CertificateqVVdu</t>
   </si>
 </sst>
 </file>
@@ -721,10 +721,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -783,147 +783,144 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="M5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -931,22 +928,22 @@
     </row>
     <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
@@ -954,19 +951,19 @@
     </row>
     <row r="9" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -983,109 +980,117 @@
     </row>
     <row r="10" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>8732732766</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -3,20 +3,25 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21480" windowHeight="11730" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -26,25 +31,21 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <color rgb="FF800080"/>
+      <color theme="9"/>
       <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
       <color theme="4"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -52,7 +53,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="14"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -60,14 +60,12 @@
       <color theme="10"/>
       <sz val="14"/>
       <u val="single"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="14"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -77,8 +75,144 @@
       <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -88,23 +222,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,38 +447,278 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -167,24 +727,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -510,7 +1109,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -520,28 +1118,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="22.5703125" defaultRowHeight="27.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.5714285714286" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
     <col width="28" customWidth="1" style="1" min="1" max="2"/>
-    <col width="32.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="32.5714285714286" customWidth="1" style="1" min="3" max="3"/>
     <col width="17" customWidth="1" style="1" min="4" max="4"/>
-    <col width="25.42578125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="25.4285714285714" customWidth="1" style="1" min="5" max="5"/>
     <col width="9" customWidth="1" style="1" min="6" max="7"/>
-    <col width="34.28515625" customWidth="1" style="1" min="8" max="8"/>
-    <col width="23.85546875" customWidth="1" style="1" min="9" max="9"/>
-    <col width="12.5703125" customWidth="1" style="1" min="10" max="10"/>
-    <col width="28.85546875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="20.5703125" customWidth="1" style="1" min="12" max="12"/>
-    <col width="12.42578125" customWidth="1" style="1" min="13" max="13"/>
+    <col width="34.2857142857143" customWidth="1" style="1" min="8" max="8"/>
+    <col width="23.8571428571429" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12.5714285714286" customWidth="1" style="1" min="10" max="10"/>
+    <col width="28.8571428571429" customWidth="1" style="1" min="11" max="11"/>
+    <col width="20.5714285714286" customWidth="1" style="1" min="12" max="12"/>
+    <col width="12.4285714285714" customWidth="1" style="1" min="13" max="13"/>
     <col width="9" customWidth="1" style="1" min="14" max="32"/>
-    <col width="22.5703125" customWidth="1" style="1" min="33" max="34"/>
-    <col width="22.5703125" customWidth="1" style="1" min="35" max="16384"/>
+    <col width="22.5714285714286" customWidth="1" style="1" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -565,76 +1162,96 @@
           <t>Phone</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Listed Companies Name</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Listed Companies Email</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Emp Name</t>
+        </is>
+      </c>
+      <c r="K1" s="9" t="inlineStr">
+        <is>
+          <t>Emp Email</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>tbchnp8@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Gemma Systems Enterprises</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>6411993924</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>empmo33nhq@yopmail.com</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>TestaaoIV Innovations Inc.</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Listed Companies Email</t>
-        </is>
-      </c>
-      <c r="J1" s="8" t="inlineStr">
-        <is>
-          <t>Emp Name</t>
-        </is>
-      </c>
-      <c r="K1" s="8" t="inlineStr">
-        <is>
-          <t>Emp Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>mahindra@yopmail.com</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Anand Mahindra</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Mahindra</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>7032690832</v>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>TestaaoIV Innovations Inc.</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>donu1ql@mailcatch.com</t>
         </is>
       </c>
-      <c r="J2" s="17" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>Krishna</t>
         </is>
       </c>
-      <c r="K2" s="14" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>employeeone@yopmail.com</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>SEND Conection OF(display connection)</t>
         </is>
       </c>
-      <c r="M2" s="9" t="inlineStr">
+      <c r="M2" s="10" t="inlineStr">
         <is>
           <t>manufacture</t>
         </is>
       </c>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="3" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -657,223 +1274,262 @@
           <t>Phone</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>TestkVqcq Services LLC</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>qaq1rj2@mailcatch.com</t>
         </is>
       </c>
-      <c r="J3" s="17" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>Anand</t>
         </is>
       </c>
-      <c r="K3" s="14" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>employeetwo@yopmail.com</t>
         </is>
       </c>
-      <c r="L3" s="10" t="inlineStr">
+      <c r="L3" s="11" t="inlineStr">
         <is>
           <t>Connection(display OF)</t>
         </is>
       </c>
-      <c r="M3" s="9" t="inlineStr">
+      <c r="M3" s="10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>q6484lk@yopmail.com</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>TestGaHLI</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Inlynk@123</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>7405505882</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>TestWQZPV Solutions Enterprises</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>bjqvi6d@mailcatch.com</t>
         </is>
       </c>
-      <c r="J4" s="17" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>Badhri</t>
         </is>
       </c>
-      <c r="K4" s="14" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>employeethree@yopmail.com</t>
         </is>
       </c>
-      <c r="M4" s="9" t="inlineStr">
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="10" t="inlineStr">
         <is>
           <t>share holder</t>
         </is>
       </c>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>company name (Manually) - Emp sign up without domain</t>
+          <t>Emp Creation From SignUp WD
+Fullname (normal Emp)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Listed company Email (Manually)</t>
+          <t>Emp email id</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Fullname</t>
+          <t>Emp Creation From SignUp WD
+Fullname (ADMIN EMP)</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>Emp email id</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>TestEkOYP Systems Group</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>l38a8ij@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>Hamesh</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>employeefour@yopmail.com</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="10" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Kylie</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>nxyonio@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Piper</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>lyszkmp@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Added Employees from inside the company - Emp name</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Personal Email</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Emp email id</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>TestEkOYP Systems Group</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>l38a8ij@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="J5" s="17" t="inlineStr">
-        <is>
-          <t>Hamesh</t>
-        </is>
-      </c>
-      <c r="K5" s="14" t="inlineStr">
-        <is>
-          <t>employeefour@yopmail.com</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>vendor</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>TestNUWPF Creators Inc.</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>jgpt835@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Testglunc</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>8290095671</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>personalptqaczb@yopmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.95" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Added Employees from inside the company - Emp name</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Personal Email</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Email address</t>
         </is>
       </c>
-      <c r="I7" s="11" t="n"/>
-      <c r="J7" s="11" t="n"/>
-      <c r="K7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="27.95" customHeight="1">
-      <c r="A8" s="15" t="inlineStr">
-        <is>
-          <t>Dylan</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>personallrtqv5h@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>97854</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>9192623865</v>
-      </c>
-      <c r="E8" s="14" t="inlineStr">
-        <is>
-          <t>emplrtqv5h@yopmail.com</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="12" t="n"/>
+      <c r="J7" s="12" t="n"/>
+      <c r="K7" s="12" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Luna</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>personaln49x3nn@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>94780</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>6463891587</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>empn49x3nn@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>test_ListedCompanyAddEmp.py</t>
         </is>
       </c>
-      <c r="I8" s="12" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="13" t="n"/>
+      <c r="I8" s="13" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -881,14 +1537,15 @@
           <t>company name (Manually) - Emp sign up with domain</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Fullname (Admin)  - row 11 inside company</t>
+          <t>Fullname (Admin)  -row 10 with domain signUp  
+row 11 inside company</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -901,98 +1558,143 @@
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J9" s="8" t="inlineStr">
+      <c r="J9" s="9" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K9" s="8" t="inlineStr">
+      <c r="K9" s="9" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="n"/>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>All Company</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>alltest@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>TestNkzSC</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>8565076011</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TestNkzSC20@yopmail.com</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Bryan Solutions Inc.</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>hd4hdqq@yopmail.com</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>6900741648</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>ejtkhnk20@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>Olivia Solutions Private Limited</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>v6xvrsx@mailcatch.com</t>
         </is>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>personalpe0cgo4@mailcatch.com</t>
         </is>
       </c>
-    </row>
-    <row r="11" ht="27.95" customHeight="1">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t>Ava</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>personalrpzxjp0@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>97854</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9192623865</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>emprpzxjp0@yopmail.com</t>
-        </is>
-      </c>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="13" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>Quincy</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>personalmwjmf7o@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>97840</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>8147620238</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>empmwjmf7o@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -1020,95 +1722,356 @@
           <t>Emp email id</t>
         </is>
       </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Mahindra</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>mahindra@yopmail.com</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Anand Mahindra</t>
         </is>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="3" t="n">
         <v>8732732766</v>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>anandpk@yopmail.com</t>
         </is>
       </c>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="B15" s="1" t="inlineStr">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>j@yopmail.com</t>
         </is>
       </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>software Riley</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>software Bryan</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>kris@yopmail.com</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>MarketingRiley</t>
-        </is>
-      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>MarketingBryan</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="n"/>
+      <c r="P18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="3" t="n"/>
+      <c r="P19" s="3" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="27.95" customHeight="1">
-      <c r="C22" s="14" t="inlineStr">
-        <is>
-          <t>pru1coa@yopmail.com</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>Rebecca Creators Group</t>
-        </is>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>7032690832</v>
-      </c>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="3" t="n"/>
+      <c r="P20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>CertificateqVVdu</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="n"/>
+      <c r="P21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
+      <c r="N22" s="3" t="n"/>
+      <c r="O22" s="3" t="n"/>
+      <c r="P22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
+      <c r="N23" s="3" t="n"/>
+      <c r="O23" s="3" t="n"/>
+      <c r="P23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="3" t="n"/>
+      <c r="M24" s="3" t="n"/>
+      <c r="N24" s="3" t="n"/>
+      <c r="O24" s="3" t="n"/>
+      <c r="P24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="n"/>
+      <c r="L25" s="3" t="n"/>
+      <c r="M25" s="3" t="n"/>
+      <c r="N25" s="3" t="n"/>
+      <c r="O25" s="3" t="n"/>
+      <c r="P25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
+      <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
+      <c r="L26" s="3" t="n"/>
+      <c r="M26" s="3" t="n"/>
+      <c r="N26" s="3" t="n"/>
+      <c r="O26" s="3" t="n"/>
+      <c r="P26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
+      <c r="L27" s="3" t="n"/>
+      <c r="M27" s="3" t="n"/>
+      <c r="N27" s="3" t="n"/>
+      <c r="O27" s="3" t="n"/>
+      <c r="P27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="3" t="n"/>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="n"/>
+      <c r="L28" s="3" t="n"/>
+      <c r="M28" s="3" t="n"/>
+      <c r="N28" s="3" t="n"/>
+      <c r="O28" s="3" t="n"/>
+      <c r="P28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="n"/>
+      <c r="L29" s="3" t="n"/>
+      <c r="M29" s="3" t="n"/>
+      <c r="N29" s="3" t="n"/>
+      <c r="O29" s="3" t="n"/>
+      <c r="P29" s="3" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6"/>
-    <hyperlink ref="B10" tooltip="mailto:alltest@yopmail.com" r:id="rId7"/>
-    <hyperlink ref="C22" r:id="rId8"/>
+    <hyperlink ref="K2" display="employeeone@yopmail.com" r:id="rId1"/>
+    <hyperlink ref="K3" display="employeetwo@yopmail.com" r:id="rId2"/>
+    <hyperlink ref="K4" display="employeethree@yopmail.com" r:id="rId3"/>
+    <hyperlink ref="K5" display="employeefour@yopmail.com" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -26,15 +26,8 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="134"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -42,9 +35,14 @@
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="4"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -52,7 +50,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="14"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -60,22 +57,18 @@
       <color theme="10"/>
       <sz val="14"/>
       <u val="single"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="14"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <color theme="10"/>
+      <color theme="9"/>
       <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -88,19 +81,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -128,63 +121,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -522,16 +512,16 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="22.5703125" defaultRowHeight="27.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
     <col width="28" customWidth="1" style="1" min="1" max="2"/>
     <col width="32.5703125" customWidth="1" style="1" min="3" max="3"/>
     <col width="17" customWidth="1" style="1" min="4" max="4"/>
-    <col width="25.42578125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="26.85546875" customWidth="1" style="1" min="5" max="5"/>
     <col width="9" customWidth="1" style="1" min="6" max="7"/>
     <col width="34.28515625" customWidth="1" style="1" min="8" max="8"/>
     <col width="23.85546875" customWidth="1" style="1" min="9" max="9"/>
@@ -540,545 +530,645 @@
     <col width="20.5703125" customWidth="1" style="1" min="12" max="12"/>
     <col width="12.42578125" customWidth="1" style="1" min="13" max="13"/>
     <col width="9" customWidth="1" style="1" min="14" max="32"/>
-    <col width="22.5703125" customWidth="1" style="1" min="33" max="34"/>
-    <col width="22.5703125" customWidth="1" style="1" min="35" max="16384"/>
+    <col width="22.5703125" customWidth="1" style="1" min="33" max="35"/>
+    <col width="9.140625" customWidth="1" style="1" min="36" max="36"/>
+    <col width="9.140625" customWidth="1" style="1" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Company Sign Up Email</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>contactname</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>company name</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>Listed Companies Name</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Listed Companies Email</t>
+        </is>
+      </c>
+      <c r="J1" s="7" t="inlineStr">
+        <is>
+          <t>Emp Name</t>
+        </is>
+      </c>
+      <c r="K1" s="7" t="inlineStr">
+        <is>
+          <t>Emp Email</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>tbchnp8@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Gemma Systems Enterprises</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>6411993924</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>empmo33nhq@yopmail.com</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>TestaaoIV Innovations Inc.</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>donu1ql@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="J2" s="9" t="inlineStr">
+        <is>
+          <t>Krishna</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>employeeone@yopmail.com</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>SEND Conection OF(display connection)</t>
+        </is>
+      </c>
+      <c r="M2" s="10" t="inlineStr">
+        <is>
+          <t>manufacture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Individual Sign Up Email</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Fullname</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>TestkVqcq Services LLC</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>qaq1rj2@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Anand</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>employeetwo@yopmail.com</t>
+        </is>
+      </c>
+      <c r="L3" s="11" t="inlineStr">
+        <is>
+          <t>Connection(display OF)</t>
+        </is>
+      </c>
+      <c r="M3" s="10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>q6484lk@yopmail.com</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>TestGaHLI</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Inlynk@123</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>7405505882</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>TestWQZPV Solutions Enterprises</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>bjqvi6d@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="inlineStr">
+        <is>
+          <t>Badhri</t>
+        </is>
+      </c>
+      <c r="K4" s="9" t="inlineStr">
+        <is>
+          <t>employeethree@yopmail.com</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="10" t="inlineStr">
+        <is>
+          <t>share holder</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Emp Creation From SignUp WD
+Fullname (normal Emp)</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Emp email id</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Emp Creation From SignUp WD
+Fullname (ADMIN EMP)</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Emp email id</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>TestEkOYP Systems Group</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>l38a8ij@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="J5" s="9" t="inlineStr">
+        <is>
+          <t>Hamesh</t>
+        </is>
+      </c>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>employeefour@yopmail.com</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>Kylie</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>nxyonio@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Piper</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>lyszkmp@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+    </row>
+    <row r="7" ht="27.95" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Added Employees from inside the company - Emp name</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Personal Email</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="12" t="n"/>
+      <c r="J7" s="12" t="n"/>
+      <c r="K7" s="12" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="27.95" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Luna</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>personaln49x3nn@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>94780</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>6463891587</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>empn49x3nn@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>test_ListedCompanyAddEmp.py</t>
+        </is>
+      </c>
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>company name (Manually) - Emp sign up with domain</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J1" s="8" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Fullname (Admin)  -row 10 with domain signUp  
+row 11 inside company</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Emp email id</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>Listed Companies Name</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>Listed Companies Email</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K1" s="8" t="inlineStr">
+      <c r="K9" s="7" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>mahindra@yopmail.com</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Anand Mahindra</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Mahindra</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>7032690832</v>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>TestaaoIV Innovations Inc.</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>donu1ql@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="J2" s="17" t="inlineStr">
-        <is>
-          <t>Krishna</t>
-        </is>
-      </c>
-      <c r="K2" s="14" t="inlineStr">
-        <is>
-          <t>employeeone@yopmail.com</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>SEND Conection OF(display connection)</t>
-        </is>
-      </c>
-      <c r="M2" s="9" t="inlineStr">
-        <is>
-          <t>manufacture</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Individual Sign Up Email</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Fullname</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>TestkVqcq Services LLC</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>qaq1rj2@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="J3" s="17" t="inlineStr">
-        <is>
-          <t>Anand</t>
-        </is>
-      </c>
-      <c r="K3" s="14" t="inlineStr">
-        <is>
-          <t>employeetwo@yopmail.com</t>
-        </is>
-      </c>
-      <c r="L3" s="10" t="inlineStr">
-        <is>
-          <t>Connection(display OF)</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>q6484lk@yopmail.com</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>TestGaHLI</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Inlynk@123</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>7405505882</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>TestWQZPV Solutions Enterprises</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>bjqvi6d@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="J4" s="17" t="inlineStr">
-        <is>
-          <t>Badhri</t>
-        </is>
-      </c>
-      <c r="K4" s="14" t="inlineStr">
-        <is>
-          <t>employeethree@yopmail.com</t>
-        </is>
-      </c>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>share holder</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>company name (Manually) - Emp sign up without domain</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Listed company Email (Manually)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Fullname</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Emp email id</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>TestEkOYP Systems Group</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>l38a8ij@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="J5" s="17" t="inlineStr">
-        <is>
-          <t>Hamesh</t>
-        </is>
-      </c>
-      <c r="K5" s="14" t="inlineStr">
-        <is>
-          <t>employeefour@yopmail.com</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>vendor</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>TestNUWPF Creators Inc.</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>jgpt835@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Testglunc</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>8290095671</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>personalptqaczb@yopmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.95" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Added Employees from inside the company - Emp name</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Personal Email</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Email address</t>
-        </is>
-      </c>
-      <c r="I7" s="11" t="n"/>
-      <c r="J7" s="11" t="n"/>
-      <c r="K7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="27.95" customHeight="1">
-      <c r="A8" s="15" t="inlineStr">
-        <is>
-          <t>Dylan</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>personallrtqv5h@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>97854</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>9192623865</v>
-      </c>
-      <c r="E8" s="14" t="inlineStr">
-        <is>
-          <t>emplrtqv5h@yopmail.com</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>test_ListedCompanyAddEmp.py</t>
-        </is>
-      </c>
-      <c r="I8" s="12" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="13" t="n"/>
-    </row>
-    <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>company name (Manually) - Emp sign up with domain</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Listed Companies Email</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Fullname (Admin)  - row 11 inside company</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Emp email id</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>Listed Companies Name</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>Listed Companies Email</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>Emp Name</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>Emp Email</t>
-        </is>
-      </c>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>All Company</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>alltest@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>TestNkzSC</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>8565076011</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TestNkzSC20@yopmail.com</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Bryan Solutions Inc.</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>hd4hdqq@yopmail.com</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>6900741648</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>ejtkhnk20@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>Olivia Solutions Private Limited</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="8" t="inlineStr">
         <is>
           <t>v6xvrsx@mailcatch.com</t>
         </is>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="J10" s="9" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="9" t="inlineStr">
         <is>
           <t>personalpe0cgo4@mailcatch.com</t>
         </is>
       </c>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="n"/>
     </row>
     <row r="11" ht="27.95" customHeight="1">
       <c r="A11" s="16" t="inlineStr">
         <is>
-          <t>Ava</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>personalrpzxjp0@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>97854</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9192623865</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>emprpzxjp0@yopmail.com</t>
-        </is>
-      </c>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="13" t="n"/>
+          <t>Quincy</t>
+        </is>
+      </c>
+      <c r="B11" s="16" t="inlineStr">
+        <is>
+          <t>personalmwjmf7o@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C11" s="16" t="inlineStr">
+        <is>
+          <t>97840</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>8147620238</t>
+        </is>
+      </c>
+      <c r="E11" s="16" t="inlineStr">
+        <is>
+          <t>empmwjmf7o@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="15" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Anand(Company name</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Email ID</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Fullname</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>Mahindra</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>mahindra@yopmail.com</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Anand Mahindra</t>
         </is>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="4" t="n">
         <v>8732732766</v>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>anandpk@yopmail.com</t>
         </is>
       </c>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="B15" s="1" t="inlineStr">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>j@yopmail.com</t>
         </is>
       </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>software Riley</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>software Amelia</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>kris@yopmail.com</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>MarketingRiley</t>
-        </is>
-      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>MarketingAmelia</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="13" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
       </c>
     </row>
+    <row r="21" ht="27.95" customHeight="1">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>CertificateqVVdu</t>
+        </is>
+      </c>
+    </row>
     <row r="22" ht="27.95" customHeight="1">
-      <c r="C22" s="14" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>pru1coa@yopmail.com</t>
         </is>
@@ -1103,10 +1193,7 @@
     <hyperlink ref="K3" r:id="rId2"/>
     <hyperlink ref="K4" r:id="rId3"/>
     <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6"/>
-    <hyperlink ref="B10" tooltip="mailto:alltest@yopmail.com" r:id="rId7"/>
-    <hyperlink ref="C22" r:id="rId8"/>
+    <hyperlink ref="C22" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1002,7 +1002,7 @@
     <row r="16" ht="27.75" customHeight="1" s="15">
       <c r="A16" s="14" t="inlineStr">
         <is>
-          <t>software Bryan</t>
+          <t>software Jasmine</t>
         </is>
       </c>
       <c r="B16" s="14" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C16" s="14" t="inlineStr">
         <is>
-          <t>MarketingBryan</t>
+          <t>MarketingJasmine</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21480" windowHeight="11730" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="17184" windowHeight="8784" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -1121,24 +1121,24 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="22.5714285714286" defaultRowHeight="27.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.5740740740741" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
     <col width="28" customWidth="1" style="1" min="1" max="2"/>
-    <col width="32.5714285714286" customWidth="1" style="1" min="3" max="3"/>
+    <col width="32.5740740740741" customWidth="1" style="1" min="3" max="3"/>
     <col width="17" customWidth="1" style="1" min="4" max="4"/>
-    <col width="25.4285714285714" customWidth="1" style="1" min="5" max="5"/>
+    <col width="25.4259259259259" customWidth="1" style="1" min="5" max="5"/>
     <col width="9" customWidth="1" style="1" min="6" max="7"/>
-    <col width="34.2857142857143" customWidth="1" style="1" min="8" max="8"/>
-    <col width="23.8571428571429" customWidth="1" style="1" min="9" max="9"/>
-    <col width="12.5714285714286" customWidth="1" style="1" min="10" max="10"/>
-    <col width="28.8571428571429" customWidth="1" style="1" min="11" max="11"/>
-    <col width="20.5714285714286" customWidth="1" style="1" min="12" max="12"/>
-    <col width="12.4285714285714" customWidth="1" style="1" min="13" max="13"/>
+    <col width="34.287037037037" customWidth="1" style="1" min="8" max="8"/>
+    <col width="23.8611111111111" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12.5740740740741" customWidth="1" style="1" min="10" max="10"/>
+    <col width="28.8611111111111" customWidth="1" style="1" min="11" max="11"/>
+    <col width="20.5740740740741" customWidth="1" style="1" min="12" max="12"/>
+    <col width="12.4259259259259" customWidth="1" style="1" min="13" max="13"/>
     <col width="9" customWidth="1" style="1" min="14" max="32"/>
-    <col width="22.5714285714286" customWidth="1" style="1" min="33" max="16384"/>
+    <col width="22.5740740740741" customWidth="1" style="1" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Gemma Systems Enterprises</t>
+          <t>TestXzCECbULOs</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -1451,7 +1451,7 @@
       <c r="O6" s="3" t="n"/>
       <c r="P6" s="3" t="n"/>
     </row>
-    <row r="7">
+    <row r="7" ht="28.8" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Added Employees from inside the company - Emp name</t>
@@ -1489,7 +1489,7 @@
       <c r="O7" s="3" t="n"/>
       <c r="P7" s="3" t="n"/>
     </row>
-    <row r="8">
+    <row r="8" ht="28.8" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Luna</t>
@@ -1640,7 +1640,7 @@
       <c r="O10" s="3" t="n"/>
       <c r="P10" s="3" t="n"/>
     </row>
-    <row r="11">
+    <row r="11" ht="18" customHeight="1">
       <c r="A11" s="8" t="inlineStr">
         <is>
           <t>Quincy</t>
@@ -1678,7 +1678,7 @@
       <c r="O11" s="3" t="n"/>
       <c r="P11" s="3" t="n"/>
     </row>
-    <row r="12">
+    <row r="12" ht="14.4" customHeight="1">
       <c r="A12" s="3" t="n"/>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
@@ -1822,7 +1822,7 @@
       <c r="O16" s="3" t="n"/>
       <c r="P16" s="3" t="n"/>
     </row>
-    <row r="17">
+    <row r="17" ht="14.4" customHeight="1">
       <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n"/>
@@ -1840,7 +1840,7 @@
       <c r="O17" s="3" t="n"/>
       <c r="P17" s="3" t="n"/>
     </row>
-    <row r="18">
+    <row r="18" ht="14.4" customHeight="1">
       <c r="A18" s="3" t="n"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="n"/>
@@ -1858,7 +1858,7 @@
       <c r="O18" s="3" t="n"/>
       <c r="P18" s="3" t="n"/>
     </row>
-    <row r="19">
+    <row r="19" ht="14.4" customHeight="1">
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="n"/>
@@ -1898,7 +1898,7 @@
       <c r="O20" s="3" t="n"/>
       <c r="P20" s="3" t="n"/>
     </row>
-    <row r="21">
+    <row r="21" ht="14.4" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
         <is>
           <t>CertificateqVVdu</t>
@@ -1920,7 +1920,7 @@
       <c r="O21" s="3" t="n"/>
       <c r="P21" s="3" t="n"/>
     </row>
-    <row r="22">
+    <row r="22" ht="14.4" customHeight="1">
       <c r="A22" s="3" t="n"/>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
@@ -1938,7 +1938,7 @@
       <c r="O22" s="3" t="n"/>
       <c r="P22" s="3" t="n"/>
     </row>
-    <row r="23">
+    <row r="23" ht="14.4" customHeight="1">
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="n"/>
@@ -1956,7 +1956,7 @@
       <c r="O23" s="3" t="n"/>
       <c r="P23" s="3" t="n"/>
     </row>
-    <row r="24">
+    <row r="24" ht="14.4" customHeight="1">
       <c r="A24" s="3" t="n"/>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
@@ -1974,7 +1974,7 @@
       <c r="O24" s="3" t="n"/>
       <c r="P24" s="3" t="n"/>
     </row>
-    <row r="25">
+    <row r="25" ht="14.4" customHeight="1">
       <c r="A25" s="3" t="n"/>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="n"/>
@@ -1992,7 +1992,7 @@
       <c r="O25" s="3" t="n"/>
       <c r="P25" s="3" t="n"/>
     </row>
-    <row r="26">
+    <row r="26" ht="14.4" customHeight="1">
       <c r="A26" s="3" t="n"/>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
@@ -2010,7 +2010,7 @@
       <c r="O26" s="3" t="n"/>
       <c r="P26" s="3" t="n"/>
     </row>
-    <row r="27">
+    <row r="27" ht="14.4" customHeight="1">
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="3" t="n"/>
@@ -2028,7 +2028,7 @@
       <c r="O27" s="3" t="n"/>
       <c r="P27" s="3" t="n"/>
     </row>
-    <row r="28">
+    <row r="28" ht="14.4" customHeight="1">
       <c r="A28" s="3" t="n"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
@@ -2046,7 +2046,7 @@
       <c r="O28" s="3" t="n"/>
       <c r="P28" s="3" t="n"/>
     </row>
-    <row r="29">
+    <row r="29" ht="14.4" customHeight="1">
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1002,7 +1002,7 @@
     <row r="16" ht="27.75" customHeight="1" s="15">
       <c r="A16" s="14" t="inlineStr">
         <is>
-          <t>software Jasmine</t>
+          <t>software Cecilia</t>
         </is>
       </c>
       <c r="B16" s="14" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C16" s="14" t="inlineStr">
         <is>
-          <t>MarketingJasmine</t>
+          <t>MarketingCecilia</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1129,7 +1129,7 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>software Amelia</t>
+          <t>software Isabella</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>MarketingAmelia</t>
+          <t>MarketingIsabella</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1901,7 +1901,7 @@
     <row r="21" ht="14.4" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>CertificateqVVdu</t>
+          <t>CertificateSZdkK</t>
         </is>
       </c>
       <c r="B21" s="3" t="n"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -577,22 +577,22 @@
     <row r="2" ht="45" customHeight="1" s="20">
       <c r="A2" s="19" t="inlineStr">
         <is>
-          <t>hakeem@yopmail.com</t>
+          <t>z17xaau@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="19" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="C2" s="19" t="inlineStr">
         <is>
-          <t>Gemma Systems Enterprises</t>
+          <t>Tyler Services Enterprises</t>
         </is>
       </c>
       <c r="D2" s="24" t="inlineStr">
         <is>
-          <t>6411993924</t>
+          <t>9820822396</t>
         </is>
       </c>
       <c r="E2" s="19" t="inlineStr">
@@ -787,22 +787,22 @@
     <row r="6" ht="30" customHeight="1" s="20">
       <c r="A6" s="25" t="inlineStr">
         <is>
-          <t>Kylie</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="B6" s="25" t="inlineStr">
         <is>
-          <t>nxyonio@mailcatch.com</t>
+          <t>fldwwgs@mailcatch.com</t>
         </is>
       </c>
       <c r="C6" s="30" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>Ximena</t>
         </is>
       </c>
       <c r="D6" s="19" t="inlineStr">
         <is>
-          <t>lyszkmp@mailcatch.com</t>
+          <t>segymtn@mailcatch.com</t>
         </is>
       </c>
       <c r="E6" s="30" t="inlineStr">
@@ -844,27 +844,27 @@
     <row r="8" ht="27.75" customHeight="1" s="20">
       <c r="A8" s="32" t="inlineStr">
         <is>
-          <t>Luna</t>
+          <t>Riley</t>
         </is>
       </c>
       <c r="B8" s="27" t="inlineStr">
         <is>
-          <t>personaln49x3nn@mailcatch.com</t>
+          <t>personalt8kyok4@mailcatch.com</t>
         </is>
       </c>
       <c r="C8" s="24" t="inlineStr">
         <is>
-          <t>94780</t>
+          <t>95147</t>
         </is>
       </c>
       <c r="D8" s="24" t="inlineStr">
         <is>
-          <t>6463891587</t>
+          <t>7443789868</t>
         </is>
       </c>
       <c r="E8" s="27" t="inlineStr">
         <is>
-          <t>empn49x3nn@mailcatch.com</t>
+          <t>empt8kyok4@mailcatch.com</t>
         </is>
       </c>
       <c r="H8" s="33" t="inlineStr">
@@ -937,17 +937,17 @@
       </c>
       <c r="C10" s="19" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Yasmine</t>
         </is>
       </c>
       <c r="D10" s="24" t="inlineStr">
         <is>
-          <t>6900741648</t>
+          <t>6703168384</t>
         </is>
       </c>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t>ejtkhnk20@mailcatch.com</t>
+          <t>gfnjpvn20@mailcatch.com</t>
         </is>
       </c>
       <c r="H10" s="25" t="inlineStr">
@@ -974,27 +974,27 @@
     <row r="11" ht="27.75" customHeight="1" s="20">
       <c r="A11" s="37" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="B11" s="19" t="inlineStr">
         <is>
-          <t>personalmwjmf7o@mailcatch.com</t>
+          <t>personalv56sok3@mailcatch.com</t>
         </is>
       </c>
       <c r="C11" s="24" t="inlineStr">
         <is>
-          <t>97840</t>
+          <t>96226</t>
         </is>
       </c>
       <c r="D11" s="24" t="inlineStr">
         <is>
-          <t>8147620238</t>
+          <t>6845335169</t>
         </is>
       </c>
       <c r="E11" s="19" t="inlineStr">
         <is>
-          <t>empmwjmf7o@mailcatch.com</t>
+          <t>empv56sok3@mailcatch.com</t>
         </is>
       </c>
       <c r="J11" s="35" t="n"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -135,7 +135,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -144,9 +144,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -156,16 +155,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -199,6 +195,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -211,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -244,15 +243,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="6" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -495,10 +496,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="22.5703125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -539,9 +540,6 @@
           <t>Phone</t>
         </is>
       </c>
-      <c r="E1" s="17" t="n"/>
-      <c r="F1" s="17" t="n"/>
-      <c r="G1" s="17" t="n"/>
       <c r="H1" s="20" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
@@ -562,36 +560,28 @@
           <t>Emp Email</t>
         </is>
       </c>
-      <c r="L1" s="17" t="n"/>
-      <c r="M1" s="17" t="n"/>
-      <c r="N1" s="17" t="n"/>
-      <c r="O1" s="17" t="n"/>
-      <c r="P1" s="17" t="n"/>
     </row>
     <row r="2" ht="45" customHeight="1" s="18">
       <c r="A2" s="22" t="inlineStr">
         <is>
-          <t>fzg7jnr@mailcatch.com</t>
+          <t>tr1ttso@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="23" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C2" s="17" t="inlineStr">
         <is>
-          <t>Benjamin Technologies Enterprises</t>
+          <t>Megan Solutions Private Limited</t>
         </is>
       </c>
       <c r="D2" s="17" t="inlineStr">
         <is>
-          <t>9913976154</t>
-        </is>
-      </c>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
+          <t>9511670783</t>
+        </is>
+      </c>
       <c r="H2" s="24" t="inlineStr">
         <is>
           <t>TestaaoIV Innovations Inc.</t>
@@ -622,9 +612,6 @@
           <t>manufacture</t>
         </is>
       </c>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1" s="18">
       <c r="A3" s="19" t="inlineStr">
@@ -647,9 +634,6 @@
           <t>Phone</t>
         </is>
       </c>
-      <c r="E3" s="17" t="n"/>
-      <c r="F3" s="17" t="n"/>
-      <c r="G3" s="17" t="n"/>
       <c r="H3" s="24" t="inlineStr">
         <is>
           <t>TestkVqcq Services LLC</t>
@@ -680,9 +664,6 @@
           <t>partner</t>
         </is>
       </c>
-      <c r="N3" s="17" t="n"/>
-      <c r="O3" s="17" t="n"/>
-      <c r="P3" s="17" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1" s="18">
       <c r="A4" s="17" t="inlineStr">
@@ -705,9 +686,6 @@
           <t>7405505882</t>
         </is>
       </c>
-      <c r="E4" s="17" t="n"/>
-      <c r="F4" s="17" t="n"/>
-      <c r="G4" s="17" t="n"/>
       <c r="H4" s="24" t="inlineStr">
         <is>
           <t>TestWQZPV Solutions Enterprises</t>
@@ -728,15 +706,11 @@
           <t>employeethree@yopmail.com</t>
         </is>
       </c>
-      <c r="L4" s="17" t="n"/>
       <c r="M4" s="26" t="inlineStr">
         <is>
           <t>share holder</t>
         </is>
       </c>
-      <c r="N4" s="17" t="n"/>
-      <c r="O4" s="17" t="n"/>
-      <c r="P4" s="17" t="n"/>
     </row>
     <row r="5" ht="30" customHeight="1" s="18">
       <c r="A5" s="19" t="inlineStr">
@@ -762,8 +736,6 @@
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
-      <c r="F5" s="17" t="n"/>
-      <c r="G5" s="17" t="n"/>
       <c r="H5" s="24" t="inlineStr">
         <is>
           <t>TestEkOYP Systems Group</t>
@@ -784,45 +756,30 @@
           <t>employeefour@yopmail.com</t>
         </is>
       </c>
-      <c r="L5" s="17" t="n"/>
       <c r="M5" s="26" t="n"/>
-      <c r="N5" s="17" t="n"/>
-      <c r="O5" s="17" t="n"/>
-      <c r="P5" s="17" t="n"/>
     </row>
     <row r="6" ht="30" customHeight="1" s="18">
       <c r="A6" s="25" t="inlineStr">
         <is>
-          <t>Uma</t>
+          <t>Zara</t>
         </is>
       </c>
       <c r="B6" s="25" t="inlineStr">
         <is>
-          <t>k59jitl@mailcatch.com</t>
+          <t>adwz2wq@mailcatch.com</t>
         </is>
       </c>
       <c r="C6" s="17" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="D6" s="17" t="inlineStr">
         <is>
-          <t>whf7393@mailcatch.com</t>
+          <t>ixn0d8j@mailcatch.com</t>
         </is>
       </c>
       <c r="E6" s="25" t="n"/>
-      <c r="F6" s="17" t="n"/>
-      <c r="G6" s="17" t="n"/>
-      <c r="H6" s="17" t="n"/>
-      <c r="I6" s="17" t="n"/>
-      <c r="J6" s="17" t="n"/>
-      <c r="K6" s="17" t="n"/>
-      <c r="L6" s="17" t="n"/>
-      <c r="M6" s="17" t="n"/>
-      <c r="N6" s="17" t="n"/>
-      <c r="O6" s="17" t="n"/>
-      <c r="P6" s="17" t="n"/>
     </row>
     <row r="7" ht="28.5" customHeight="1" s="18">
       <c r="A7" s="19" t="inlineStr">
@@ -850,46 +807,36 @@
           <t>Email address</t>
         </is>
       </c>
-      <c r="F7" s="17" t="n"/>
-      <c r="G7" s="17" t="n"/>
-      <c r="H7" s="17" t="n"/>
       <c r="I7" s="28" t="n"/>
       <c r="J7" s="28" t="n"/>
       <c r="K7" s="28" t="n"/>
-      <c r="L7" s="17" t="n"/>
-      <c r="M7" s="17" t="n"/>
-      <c r="N7" s="17" t="n"/>
-      <c r="O7" s="17" t="n"/>
-      <c r="P7" s="17" t="n"/>
     </row>
     <row r="8" ht="28.5" customHeight="1" s="18">
       <c r="A8" s="17" t="inlineStr">
         <is>
-          <t>Finn</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B8" s="17" t="inlineStr">
         <is>
-          <t>personalzaruuww@mailcatch.com</t>
+          <t>personalpfj0m6a@mailcatch.com</t>
         </is>
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>98774</t>
+          <t>92209</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>8142828171</t>
+          <t>9440927487</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>empzaruuww@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
+          <t>emppfj0m6a@mailcatch.com</t>
+        </is>
+      </c>
       <c r="H8" s="29" t="inlineStr">
         <is>
           <t>test_ListedCompanyAddEmp.py</t>
@@ -898,11 +845,6 @@
       <c r="I8" s="30" t="n"/>
       <c r="J8" s="31" t="n"/>
       <c r="K8" s="31" t="n"/>
-      <c r="L8" s="17" t="n"/>
-      <c r="M8" s="17" t="n"/>
-      <c r="N8" s="17" t="n"/>
-      <c r="O8" s="17" t="n"/>
-      <c r="P8" s="17" t="n"/>
     </row>
     <row r="9" ht="30" customHeight="1" s="18">
       <c r="A9" s="19" t="inlineStr">
@@ -931,8 +873,6 @@
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="F9" s="17" t="n"/>
-      <c r="G9" s="17" t="n"/>
       <c r="H9" s="20" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
@@ -953,11 +893,6 @@
           <t>Emp Email</t>
         </is>
       </c>
-      <c r="L9" s="17" t="n"/>
-      <c r="M9" s="17" t="n"/>
-      <c r="N9" s="17" t="n"/>
-      <c r="O9" s="17" t="n"/>
-      <c r="P9" s="17" t="n"/>
     </row>
     <row r="10" ht="30" customHeight="1" s="18">
       <c r="A10" s="17" t="inlineStr">
@@ -972,21 +907,19 @@
       </c>
       <c r="C10" s="17" t="inlineStr">
         <is>
-          <t>Gemma</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="D10" s="17" t="inlineStr">
         <is>
-          <t>7467906080</t>
+          <t>7691705555</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>ovdwyyd20@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="F10" s="17" t="n"/>
-      <c r="G10" s="17" t="n"/>
+          <t>mzufqjt20@mailcatch.com</t>
+        </is>
+      </c>
       <c r="H10" s="24" t="inlineStr">
         <is>
           <t>Olivia Solutions Private Limited</t>
@@ -1007,68 +940,37 @@
           <t>personalpe0cgo4@mailcatch.com</t>
         </is>
       </c>
-      <c r="L10" s="17" t="n"/>
-      <c r="M10" s="17" t="n"/>
-      <c r="N10" s="17" t="n"/>
-      <c r="O10" s="17" t="n"/>
-      <c r="P10" s="17" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1" s="18">
       <c r="A11" s="32" t="inlineStr">
         <is>
-          <t>Xander</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B11" s="32" t="inlineStr">
         <is>
-          <t>personalsoiu0t3@mailcatch.com</t>
+          <t>personaldxdq3hh@mailcatch.com</t>
         </is>
       </c>
       <c r="C11" s="32" t="inlineStr">
         <is>
-          <t>98598</t>
+          <t>97818</t>
         </is>
       </c>
       <c r="D11" s="32" t="inlineStr">
         <is>
-          <t>9170710458</t>
+          <t>7176260607</t>
         </is>
       </c>
       <c r="E11" s="32" t="inlineStr">
         <is>
-          <t>empsoiu0t3@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="F11" s="17" t="n"/>
-      <c r="G11" s="17" t="n"/>
-      <c r="H11" s="17" t="n"/>
-      <c r="I11" s="17" t="n"/>
+          <t>empdxdq3hh@mailcatch.com</t>
+        </is>
+      </c>
       <c r="J11" s="31" t="n"/>
       <c r="K11" s="31" t="n"/>
-      <c r="L11" s="17" t="n"/>
-      <c r="M11" s="17" t="n"/>
-      <c r="N11" s="17" t="n"/>
-      <c r="O11" s="17" t="n"/>
-      <c r="P11" s="17" t="n"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" s="18">
-      <c r="A12" s="17" t="n"/>
-      <c r="B12" s="17" t="n"/>
-      <c r="C12" s="17" t="n"/>
-      <c r="D12" s="17" t="n"/>
-      <c r="E12" s="17" t="n"/>
-      <c r="F12" s="17" t="n"/>
-      <c r="G12" s="17" t="n"/>
-      <c r="H12" s="17" t="n"/>
-      <c r="I12" s="17" t="n"/>
-      <c r="J12" s="17" t="n"/>
-      <c r="K12" s="17" t="n"/>
-      <c r="L12" s="17" t="n"/>
-      <c r="M12" s="17" t="n"/>
-      <c r="N12" s="17" t="n"/>
-      <c r="O12" s="17" t="n"/>
-      <c r="P12" s="17" t="n"/>
-    </row>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" s="18"/>
     <row r="13" ht="15" customHeight="1" s="18">
       <c r="A13" s="19" t="inlineStr">
         <is>
@@ -1095,17 +997,6 @@
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="F13" s="17" t="n"/>
-      <c r="G13" s="17" t="n"/>
-      <c r="H13" s="17" t="n"/>
-      <c r="I13" s="17" t="n"/>
-      <c r="J13" s="17" t="n"/>
-      <c r="K13" s="17" t="n"/>
-      <c r="L13" s="17" t="n"/>
-      <c r="M13" s="17" t="n"/>
-      <c r="N13" s="17" t="n"/>
-      <c r="O13" s="17" t="n"/>
-      <c r="P13" s="17" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="18">
       <c r="A14" s="17" t="inlineStr">
@@ -1131,39 +1022,13 @@
           <t>anandpk@yopmail.com</t>
         </is>
       </c>
-      <c r="F14" s="17" t="n"/>
-      <c r="G14" s="17" t="n"/>
-      <c r="H14" s="17" t="n"/>
-      <c r="I14" s="17" t="n"/>
-      <c r="J14" s="17" t="n"/>
-      <c r="K14" s="17" t="n"/>
-      <c r="L14" s="17" t="n"/>
-      <c r="M14" s="17" t="n"/>
-      <c r="N14" s="17" t="n"/>
-      <c r="O14" s="17" t="n"/>
-      <c r="P14" s="17" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="18">
-      <c r="A15" s="17" t="n"/>
       <c r="B15" s="17" t="inlineStr">
         <is>
           <t>j@yopmail.com</t>
         </is>
       </c>
-      <c r="C15" s="17" t="n"/>
-      <c r="D15" s="17" t="n"/>
-      <c r="E15" s="17" t="n"/>
-      <c r="F15" s="17" t="n"/>
-      <c r="G15" s="17" t="n"/>
-      <c r="H15" s="17" t="n"/>
-      <c r="I15" s="17" t="n"/>
-      <c r="J15" s="17" t="n"/>
-      <c r="K15" s="17" t="n"/>
-      <c r="L15" s="17" t="n"/>
-      <c r="M15" s="17" t="n"/>
-      <c r="N15" s="17" t="n"/>
-      <c r="O15" s="17" t="n"/>
-      <c r="P15" s="17" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="18">
       <c r="A16" s="17" t="inlineStr">
@@ -1181,95 +1046,16 @@
           <t>MarketingDylan</t>
         </is>
       </c>
-      <c r="D16" s="17" t="n"/>
-      <c r="E16" s="17" t="n"/>
-      <c r="F16" s="17" t="n"/>
-      <c r="G16" s="17" t="n"/>
-      <c r="H16" s="17" t="n"/>
-      <c r="I16" s="17" t="n"/>
-      <c r="J16" s="17" t="n"/>
-      <c r="K16" s="17" t="n"/>
-      <c r="L16" s="17" t="n"/>
-      <c r="M16" s="17" t="n"/>
-      <c r="N16" s="17" t="n"/>
-      <c r="O16" s="17" t="n"/>
-      <c r="P16" s="17" t="n"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" s="18">
-      <c r="A17" s="17" t="n"/>
-      <c r="B17" s="17" t="n"/>
-      <c r="C17" s="17" t="n"/>
-      <c r="D17" s="17" t="n"/>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="n"/>
-      <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="n"/>
-      <c r="I17" s="17" t="n"/>
-      <c r="J17" s="17" t="n"/>
-      <c r="K17" s="17" t="n"/>
-      <c r="L17" s="17" t="n"/>
-      <c r="M17" s="17" t="n"/>
-      <c r="N17" s="17" t="n"/>
-      <c r="O17" s="17" t="n"/>
-      <c r="P17" s="17" t="n"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" s="18">
-      <c r="A18" s="17" t="n"/>
-      <c r="B18" s="17" t="n"/>
-      <c r="C18" s="17" t="n"/>
-      <c r="D18" s="17" t="n"/>
-      <c r="E18" s="17" t="n"/>
-      <c r="F18" s="17" t="n"/>
-      <c r="G18" s="17" t="n"/>
-      <c r="H18" s="17" t="n"/>
-      <c r="I18" s="17" t="n"/>
-      <c r="J18" s="17" t="n"/>
-      <c r="K18" s="17" t="n"/>
-      <c r="L18" s="17" t="n"/>
-      <c r="M18" s="17" t="n"/>
-      <c r="N18" s="17" t="n"/>
-      <c r="O18" s="17" t="n"/>
-      <c r="P18" s="17" t="n"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" s="18">
-      <c r="A19" s="17" t="n"/>
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="17" t="n"/>
-      <c r="D19" s="17" t="n"/>
-      <c r="E19" s="17" t="n"/>
-      <c r="F19" s="17" t="n"/>
-      <c r="G19" s="17" t="n"/>
-      <c r="H19" s="17" t="n"/>
-      <c r="I19" s="17" t="n"/>
-      <c r="J19" s="17" t="n"/>
-      <c r="K19" s="17" t="n"/>
-      <c r="L19" s="17" t="n"/>
-      <c r="M19" s="17" t="n"/>
-      <c r="N19" s="17" t="n"/>
-      <c r="O19" s="17" t="n"/>
-      <c r="P19" s="17" t="n"/>
-    </row>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" s="18"/>
+    <row r="18" ht="14.25" customHeight="1" s="18"/>
+    <row r="19" ht="14.25" customHeight="1" s="18"/>
     <row r="20" ht="15" customHeight="1" s="18">
       <c r="A20" s="29" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
       </c>
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="17" t="n"/>
-      <c r="D20" s="17" t="n"/>
-      <c r="E20" s="17" t="n"/>
-      <c r="F20" s="17" t="n"/>
-      <c r="G20" s="17" t="n"/>
-      <c r="H20" s="17" t="n"/>
-      <c r="I20" s="17" t="n"/>
-      <c r="J20" s="17" t="n"/>
-      <c r="K20" s="17" t="n"/>
-      <c r="L20" s="17" t="n"/>
-      <c r="M20" s="17" t="n"/>
-      <c r="N20" s="17" t="n"/>
-      <c r="O20" s="17" t="n"/>
-      <c r="P20" s="17" t="n"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" s="18">
       <c r="A21" s="24" t="inlineStr">
@@ -1277,43 +1063,9 @@
           <t>CertificatepKqvn</t>
         </is>
       </c>
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="17" t="n"/>
-      <c r="D21" s="17" t="n"/>
-      <c r="E21" s="17" t="n"/>
-      <c r="F21" s="17" t="n"/>
-      <c r="G21" s="17" t="n"/>
-      <c r="H21" s="17" t="n"/>
-      <c r="I21" s="17" t="n"/>
-      <c r="J21" s="17" t="n"/>
-      <c r="K21" s="17" t="n"/>
-      <c r="L21" s="17" t="n"/>
-      <c r="M21" s="17" t="n"/>
-      <c r="N21" s="17" t="n"/>
-      <c r="O21" s="17" t="n"/>
-      <c r="P21" s="17" t="n"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" s="18">
-      <c r="A22" s="17" t="n"/>
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="17" t="n"/>
-      <c r="D22" s="17" t="n"/>
-      <c r="E22" s="17" t="n"/>
-      <c r="F22" s="17" t="n"/>
-      <c r="G22" s="17" t="n"/>
-      <c r="H22" s="17" t="n"/>
-      <c r="I22" s="17" t="n"/>
-      <c r="J22" s="17" t="n"/>
-      <c r="K22" s="17" t="n"/>
-      <c r="L22" s="17" t="n"/>
-      <c r="M22" s="17" t="n"/>
-      <c r="N22" s="17" t="n"/>
-      <c r="O22" s="17" t="n"/>
-      <c r="P22" s="17" t="n"/>
-    </row>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" s="18"/>
     <row r="23" ht="14.25" customHeight="1" s="18">
-      <c r="A23" s="17" t="n"/>
-      <c r="B23" s="17" t="n"/>
       <c r="C23" s="24" t="inlineStr">
         <is>
           <t>tbchnp8@mailcatch.com</t>
@@ -1334,128 +1086,23 @@
           <t>6411993924</t>
         </is>
       </c>
-      <c r="G23" s="17" t="n"/>
-      <c r="H23" s="17" t="n"/>
-      <c r="I23" s="17" t="n"/>
-      <c r="J23" s="17" t="n"/>
-      <c r="K23" s="17" t="n"/>
-      <c r="L23" s="17" t="n"/>
-      <c r="M23" s="17" t="n"/>
-      <c r="N23" s="17" t="n"/>
-      <c r="O23" s="17" t="n"/>
-      <c r="P23" s="17" t="n"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="18">
-      <c r="A24" s="17" t="n"/>
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="17" t="n"/>
-      <c r="D24" s="17" t="n"/>
-      <c r="E24" s="17" t="n"/>
-      <c r="F24" s="17" t="n"/>
-      <c r="G24" s="17" t="n"/>
-      <c r="H24" s="17" t="n"/>
-      <c r="I24" s="17" t="n"/>
-      <c r="J24" s="17" t="n"/>
-      <c r="K24" s="17" t="n"/>
-      <c r="L24" s="17" t="n"/>
-      <c r="M24" s="17" t="n"/>
-      <c r="N24" s="17" t="n"/>
-      <c r="O24" s="17" t="n"/>
-      <c r="P24" s="17" t="n"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" s="18">
-      <c r="A25" s="17" t="n"/>
-      <c r="B25" s="17" t="n"/>
-      <c r="C25" s="17" t="n"/>
-      <c r="D25" s="17" t="n"/>
-      <c r="E25" s="17" t="n"/>
-      <c r="F25" s="17" t="n"/>
-      <c r="G25" s="17" t="n"/>
-      <c r="H25" s="17" t="n"/>
-      <c r="I25" s="17" t="n"/>
-      <c r="J25" s="17" t="n"/>
-      <c r="K25" s="17" t="n"/>
-      <c r="L25" s="17" t="n"/>
-      <c r="M25" s="17" t="n"/>
-      <c r="N25" s="17" t="n"/>
-      <c r="O25" s="17" t="n"/>
-      <c r="P25" s="17" t="n"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" s="18">
-      <c r="A26" s="17" t="n"/>
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="17" t="n"/>
-      <c r="D26" s="17" t="n"/>
-      <c r="E26" s="17" t="n"/>
-      <c r="F26" s="17" t="n"/>
-      <c r="G26" s="17" t="n"/>
-      <c r="H26" s="17" t="n"/>
-      <c r="I26" s="17" t="n"/>
-      <c r="J26" s="17" t="n"/>
-      <c r="K26" s="17" t="n"/>
-      <c r="L26" s="17" t="n"/>
-      <c r="M26" s="17" t="n"/>
-      <c r="N26" s="17" t="n"/>
-      <c r="O26" s="17" t="n"/>
-      <c r="P26" s="17" t="n"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" s="18">
-      <c r="A27" s="17" t="n"/>
-      <c r="B27" s="17" t="n"/>
-      <c r="C27" s="17" t="n"/>
-      <c r="D27" s="17" t="n"/>
-      <c r="E27" s="17" t="n"/>
-      <c r="F27" s="17" t="n"/>
-      <c r="G27" s="17" t="n"/>
-      <c r="H27" s="17" t="n"/>
-      <c r="I27" s="17" t="n"/>
-      <c r="J27" s="17" t="n"/>
-      <c r="K27" s="17" t="n"/>
-      <c r="L27" s="17" t="n"/>
-      <c r="M27" s="17" t="n"/>
-      <c r="N27" s="17" t="n"/>
-      <c r="O27" s="17" t="n"/>
-      <c r="P27" s="17" t="n"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1" s="18">
-      <c r="A28" s="17" t="n"/>
-      <c r="B28" s="17" t="n"/>
-      <c r="C28" s="17" t="n"/>
-      <c r="D28" s="17" t="n"/>
-      <c r="E28" s="17" t="n"/>
-      <c r="F28" s="17" t="n"/>
-      <c r="G28" s="17" t="n"/>
-      <c r="H28" s="17" t="n"/>
-      <c r="I28" s="17" t="n"/>
-      <c r="J28" s="17" t="n"/>
-      <c r="K28" s="17" t="n"/>
-      <c r="L28" s="17" t="n"/>
-      <c r="M28" s="17" t="n"/>
-      <c r="N28" s="17" t="n"/>
-      <c r="O28" s="17" t="n"/>
-      <c r="P28" s="17" t="n"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1" s="18">
-      <c r="A29" s="17" t="n"/>
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="17" t="n"/>
-      <c r="D29" s="17" t="n"/>
-      <c r="E29" s="17" t="n"/>
-      <c r="F29" s="17" t="n"/>
-      <c r="G29" s="17" t="n"/>
-      <c r="H29" s="17" t="n"/>
-      <c r="I29" s="17" t="n"/>
-      <c r="J29" s="17" t="n"/>
-      <c r="K29" s="17" t="n"/>
-      <c r="L29" s="17" t="n"/>
-      <c r="M29" s="17" t="n"/>
-      <c r="N29" s="17" t="n"/>
-      <c r="O29" s="17" t="n"/>
-      <c r="P29" s="17" t="n"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="18"/>
+    <row r="25" ht="14.25" customHeight="1" s="18"/>
+    <row r="26" ht="14.25" customHeight="1" s="18"/>
+    <row r="27" ht="14.25" customHeight="1" s="18"/>
+    <row r="28" ht="14.25" customHeight="1" s="18"/>
+    <row r="29" ht="14.25" customHeight="1" s="18"/>
+    <row r="30" ht="13.5" customHeight="1" s="18">
+      <c r="A30" s="33" t="n"/>
+      <c r="B30" s="33" t="n"/>
+      <c r="C30" s="33" t="n"/>
+      <c r="D30" s="33" t="n"/>
+      <c r="E30" s="33" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="rmmcpcd@mailcatch.com" r:id="rId1"/>
+    <hyperlink ref="A2" display="aravii@yopmail.com" r:id="rId1"/>
     <hyperlink ref="K2" display="employeeone@yopmail.com" r:id="rId2"/>
     <hyperlink ref="K3" display="employeetwo@yopmail.com" r:id="rId3"/>
     <hyperlink ref="K4" display="employeethree@yopmail.com" r:id="rId4"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -39,21 +39,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <family val="0"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -108,7 +93,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
@@ -145,7 +130,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -161,12 +146,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
@@ -176,25 +155,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -210,12 +186,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
@@ -225,25 +195,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -496,613 +463,573 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="22.5703125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="28" customWidth="1" style="17" min="1" max="2"/>
-    <col width="32.57" customWidth="1" style="17" min="3" max="3"/>
-    <col width="17" customWidth="1" style="17" min="4" max="4"/>
-    <col width="25.42" customWidth="1" style="17" min="5" max="5"/>
-    <col width="9" customWidth="1" style="17" min="6" max="7"/>
-    <col width="34.29" customWidth="1" style="17" min="8" max="8"/>
-    <col width="23.86" customWidth="1" style="17" min="9" max="9"/>
-    <col width="12.57" customWidth="1" style="17" min="10" max="10"/>
-    <col width="28.86" customWidth="1" style="17" min="11" max="11"/>
-    <col width="20.57" customWidth="1" style="17" min="12" max="12"/>
-    <col width="12.42" customWidth="1" style="17" min="13" max="13"/>
-    <col width="9" customWidth="1" style="17" min="14" max="32"/>
-    <col width="22.57" customWidth="1" style="17" min="33" max="16384"/>
+    <col width="28" customWidth="1" style="14" min="1" max="2"/>
+    <col width="32.55" customWidth="1" style="14" min="3" max="3"/>
+    <col width="17" customWidth="1" style="14" min="4" max="4"/>
+    <col width="25.45" customWidth="1" style="14" min="5" max="5"/>
+    <col width="9" customWidth="1" style="14" min="6" max="7"/>
+    <col width="34.27" customWidth="1" style="14" min="8" max="8"/>
+    <col width="23.91" customWidth="1" style="14" min="9" max="9"/>
+    <col width="12.55" customWidth="1" style="14" min="10" max="10"/>
+    <col width="28.82" customWidth="1" style="14" min="11" max="11"/>
+    <col width="20.55" customWidth="1" style="14" min="12" max="12"/>
+    <col width="12.45" customWidth="1" style="14" min="13" max="13"/>
+    <col width="9" customWidth="1" style="14" min="14" max="32"/>
+    <col width="22.55" customWidth="1" style="14" min="33" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="18">
-      <c r="A1" s="19" t="inlineStr">
+    <row r="1" ht="27.75" customHeight="1" s="15">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>Company Sign Up Email</t>
         </is>
       </c>
-      <c r="B1" s="19" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>contactname</t>
         </is>
       </c>
-      <c r="C1" s="19" t="inlineStr">
+      <c r="C1" s="16" t="inlineStr">
         <is>
           <t>company name</t>
         </is>
       </c>
-      <c r="D1" s="19" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H1" s="20" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I1" s="20" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="18" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="K1" s="18" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1" s="18">
-      <c r="A2" s="22" t="inlineStr">
-        <is>
-          <t>tr1ttso@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="B2" s="23" t="inlineStr">
-        <is>
-          <t>Gavin</t>
-        </is>
-      </c>
-      <c r="C2" s="17" t="inlineStr">
-        <is>
-          <t>Megan Solutions Private Limited</t>
-        </is>
-      </c>
-      <c r="D2" s="17" t="inlineStr">
-        <is>
-          <t>9511670783</t>
-        </is>
-      </c>
-      <c r="H2" s="24" t="inlineStr">
+    <row r="2" ht="27.75" customHeight="1" s="15">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>z5rqy9s7@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>Kylie</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
+        <is>
+          <t>Xander Solutions Inc.</t>
+        </is>
+      </c>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>7465584735</t>
+        </is>
+      </c>
+      <c r="H2" s="19" t="inlineStr">
         <is>
           <t>TestaaoIV Innovations Inc.</t>
         </is>
       </c>
-      <c r="I2" s="24" t="inlineStr">
+      <c r="I2" s="19" t="inlineStr">
         <is>
           <t>donu1ql@mailcatch.com</t>
         </is>
       </c>
-      <c r="J2" s="25" t="inlineStr">
+      <c r="J2" s="20" t="inlineStr">
         <is>
           <t>Krishna</t>
         </is>
       </c>
-      <c r="K2" s="25" t="inlineStr">
+      <c r="K2" s="20" t="inlineStr">
         <is>
           <t>employeeone@yopmail.com</t>
         </is>
       </c>
-      <c r="L2" s="17" t="inlineStr">
+      <c r="L2" s="14" t="inlineStr">
         <is>
           <t>SEND Conection OF(display connection)</t>
         </is>
       </c>
-      <c r="M2" s="26" t="inlineStr">
+      <c r="M2" s="21" t="inlineStr">
         <is>
           <t>manufacture</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" s="18">
-      <c r="A3" s="19" t="inlineStr">
+    <row r="3" ht="27.75" customHeight="1" s="15">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Individual Sign Up Email</t>
         </is>
       </c>
-      <c r="B3" s="19" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>Fullname</t>
         </is>
       </c>
-      <c r="C3" s="19" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="D3" s="19" t="inlineStr">
+      <c r="D3" s="16" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H3" s="24" t="inlineStr">
+      <c r="H3" s="19" t="inlineStr">
         <is>
           <t>TestkVqcq Services LLC</t>
         </is>
       </c>
-      <c r="I3" s="24" t="inlineStr">
+      <c r="I3" s="19" t="inlineStr">
         <is>
           <t>qaq1rj2@mailcatch.com</t>
         </is>
       </c>
-      <c r="J3" s="25" t="inlineStr">
+      <c r="J3" s="20" t="inlineStr">
         <is>
           <t>Anand</t>
         </is>
       </c>
-      <c r="K3" s="25" t="inlineStr">
+      <c r="K3" s="20" t="inlineStr">
         <is>
           <t>employeetwo@yopmail.com</t>
         </is>
       </c>
-      <c r="L3" s="27" t="inlineStr">
+      <c r="L3" s="22" t="inlineStr">
         <is>
           <t>Connection(display OF)</t>
         </is>
       </c>
-      <c r="M3" s="26" t="inlineStr">
+      <c r="M3" s="21" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" s="18">
-      <c r="A4" s="17" t="inlineStr">
+    <row r="4" ht="27.75" customHeight="1" s="15">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>q6484lk@yopmail.com</t>
         </is>
       </c>
-      <c r="B4" s="17" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>TestGaHLI</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Inlynk@123</t>
         </is>
       </c>
-      <c r="D4" s="17" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>7405505882</t>
         </is>
       </c>
-      <c r="H4" s="24" t="inlineStr">
+      <c r="H4" s="19" t="inlineStr">
         <is>
           <t>TestWQZPV Solutions Enterprises</t>
         </is>
       </c>
-      <c r="I4" s="24" t="inlineStr">
+      <c r="I4" s="19" t="inlineStr">
         <is>
           <t>bjqvi6d@mailcatch.com</t>
         </is>
       </c>
-      <c r="J4" s="25" t="inlineStr">
+      <c r="J4" s="20" t="inlineStr">
         <is>
           <t>Badhri</t>
         </is>
       </c>
-      <c r="K4" s="25" t="inlineStr">
+      <c r="K4" s="20" t="inlineStr">
         <is>
           <t>employeethree@yopmail.com</t>
         </is>
       </c>
-      <c r="M4" s="26" t="inlineStr">
+      <c r="M4" s="21" t="inlineStr">
         <is>
           <t>share holder</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" s="18">
-      <c r="A5" s="19" t="inlineStr">
+    <row r="5" ht="27.75" customHeight="1" s="15">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Emp Creation From SignUp WD
 Fullname (normal Emp)</t>
         </is>
       </c>
-      <c r="B5" s="19" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="C5" s="19" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>Emp Creation From SignUp WD
 Fullname (ADMIN EMP)</t>
         </is>
       </c>
-      <c r="D5" s="19" t="inlineStr">
+      <c r="D5" s="16" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="E5" s="19" t="n"/>
-      <c r="H5" s="24" t="inlineStr">
+      <c r="E5" s="16" t="n"/>
+      <c r="H5" s="19" t="inlineStr">
         <is>
           <t>TestEkOYP Systems Group</t>
         </is>
       </c>
-      <c r="I5" s="24" t="inlineStr">
+      <c r="I5" s="19" t="inlineStr">
         <is>
           <t>l38a8ij@mailcatch.com</t>
         </is>
       </c>
-      <c r="J5" s="25" t="inlineStr">
+      <c r="J5" s="20" t="inlineStr">
         <is>
           <t>Hamesh</t>
         </is>
       </c>
-      <c r="K5" s="25" t="inlineStr">
+      <c r="K5" s="20" t="inlineStr">
         <is>
           <t>employeefour@yopmail.com</t>
         </is>
       </c>
-      <c r="M5" s="26" t="n"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" s="18">
-      <c r="A6" s="25" t="inlineStr">
-        <is>
-          <t>Zara</t>
-        </is>
-      </c>
-      <c r="B6" s="25" t="inlineStr">
-        <is>
-          <t>adwz2wq@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="C6" s="17" t="inlineStr">
-        <is>
-          <t>Grace</t>
-        </is>
-      </c>
-      <c r="D6" s="17" t="inlineStr">
-        <is>
-          <t>ixn0d8j@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="E6" s="25" t="n"/>
-    </row>
-    <row r="7" ht="28.5" customHeight="1" s="18">
-      <c r="A7" s="19" t="inlineStr">
+      <c r="M5" s="21" t="n"/>
+    </row>
+    <row r="6" ht="27.75" customHeight="1" s="15">
+      <c r="A6" s="20" t="inlineStr">
+        <is>
+          <t>Hudson</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>twt0mco9@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>tp5me2od@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="n"/>
+    </row>
+    <row r="7" ht="27.75" customHeight="1" s="15">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>Added Employees from inside the company - Emp name</t>
         </is>
       </c>
-      <c r="B7" s="19" t="inlineStr">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>Personal Email</t>
         </is>
       </c>
-      <c r="C7" s="19" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D7" s="19" t="inlineStr">
+      <c r="D7" s="16" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E7" s="19" t="inlineStr">
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>Email address</t>
         </is>
       </c>
-      <c r="I7" s="28" t="n"/>
-      <c r="J7" s="28" t="n"/>
-      <c r="K7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="28.5" customHeight="1" s="18">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="B8" s="17" t="inlineStr">
-        <is>
-          <t>personalpfj0m6a@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="C8" s="17" t="inlineStr">
-        <is>
-          <t>92209</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="inlineStr">
-        <is>
-          <t>9440927487</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>emppfj0m6a@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="H8" s="29" t="inlineStr">
+      <c r="I7" s="23" t="n"/>
+      <c r="J7" s="23" t="n"/>
+      <c r="K7" s="23" t="n"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1" s="15">
+      <c r="A8" s="14" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>personalvchl9y7n@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>90810</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>6591426396</t>
+        </is>
+      </c>
+      <c r="E8" s="14" t="inlineStr">
+        <is>
+          <t>empvchl9y7n@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="H8" s="24" t="inlineStr">
         <is>
           <t>test_ListedCompanyAddEmp.py</t>
         </is>
       </c>
-      <c r="I8" s="30" t="n"/>
-      <c r="J8" s="31" t="n"/>
-      <c r="K8" s="31" t="n"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" s="18">
-      <c r="A9" s="19" t="inlineStr">
+      <c r="I8" s="25" t="n"/>
+      <c r="J8" s="26" t="n"/>
+      <c r="K8" s="26" t="n"/>
+    </row>
+    <row r="9" ht="27.75" customHeight="1" s="15">
+      <c r="A9" s="16" t="inlineStr">
         <is>
           <t>company name (Manually) - Emp sign up with domain</t>
         </is>
       </c>
-      <c r="B9" s="20" t="inlineStr">
+      <c r="B9" s="17" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="C9" s="19" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>Fullname (Admin)  -row 10 with domain signUp  
 row 11 inside company</t>
         </is>
       </c>
-      <c r="D9" s="19" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E9" s="19" t="inlineStr">
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="17" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="17" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J9" s="21" t="inlineStr">
+      <c r="J9" s="18" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K9" s="21" t="inlineStr">
+      <c r="K9" s="18" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1" s="18">
-      <c r="A10" s="17" t="inlineStr">
+    <row r="10" ht="27.75" customHeight="1" s="15">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Bryan Solutions Inc.</t>
         </is>
       </c>
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="19" t="inlineStr">
         <is>
           <t>hd4hdqq@yopmail.com</t>
         </is>
       </c>
-      <c r="C10" s="17" t="inlineStr">
-        <is>
-          <t>Tyler</t>
-        </is>
-      </c>
-      <c r="D10" s="17" t="inlineStr">
-        <is>
-          <t>7691705555</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>mzufqjt20@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="H10" s="24" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>6745084846</t>
+        </is>
+      </c>
+      <c r="E10" s="14" t="inlineStr">
+        <is>
+          <t>vy0ntn620@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="H10" s="19" t="inlineStr">
         <is>
           <t>Olivia Solutions Private Limited</t>
         </is>
       </c>
-      <c r="I10" s="24" t="inlineStr">
+      <c r="I10" s="19" t="inlineStr">
         <is>
           <t>v6xvrsx@mailcatch.com</t>
         </is>
       </c>
-      <c r="J10" s="25" t="inlineStr">
+      <c r="J10" s="20" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="K10" s="25" t="inlineStr">
+      <c r="K10" s="20" t="inlineStr">
         <is>
           <t>personalpe0cgo4@mailcatch.com</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1" s="18">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="B11" s="32" t="inlineStr">
-        <is>
-          <t>personaldxdq3hh@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="C11" s="32" t="inlineStr">
-        <is>
-          <t>97818</t>
-        </is>
-      </c>
-      <c r="D11" s="32" t="inlineStr">
-        <is>
-          <t>7176260607</t>
-        </is>
-      </c>
-      <c r="E11" s="32" t="inlineStr">
-        <is>
-          <t>empdxdq3hh@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="J11" s="31" t="n"/>
-      <c r="K11" s="31" t="n"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" s="18"/>
-    <row r="13" ht="15" customHeight="1" s="18">
-      <c r="A13" s="19" t="inlineStr">
+    <row r="11" ht="27.75" customHeight="1" s="15">
+      <c r="A11" s="27" t="inlineStr">
+        <is>
+          <t>Tessa</t>
+        </is>
+      </c>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>personaljhio7phs@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>93643</t>
+        </is>
+      </c>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>8510533589</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>empjhio7phs@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="J11" s="26" t="n"/>
+      <c r="K11" s="26" t="n"/>
+    </row>
+    <row r="13" ht="27.75" customHeight="1" s="15">
+      <c r="A13" s="16" t="inlineStr">
         <is>
           <t>Anand(Company name</t>
         </is>
       </c>
-      <c r="B13" s="19" t="inlineStr">
+      <c r="B13" s="16" t="inlineStr">
         <is>
           <t>Email ID</t>
         </is>
       </c>
-      <c r="C13" s="19" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>Fullname</t>
         </is>
       </c>
-      <c r="D13" s="19" t="inlineStr">
+      <c r="D13" s="16" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E13" s="19" t="inlineStr">
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="18">
-      <c r="A14" s="17" t="inlineStr">
+    <row r="14" ht="27.75" customHeight="1" s="15">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Mahindra</t>
         </is>
       </c>
-      <c r="B14" s="17" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>mahindra@yopmail.com</t>
         </is>
       </c>
-      <c r="C14" s="17" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>Anand Mahindra</t>
         </is>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="14" t="n">
         <v>8732732766</v>
       </c>
-      <c r="E14" s="17" t="inlineStr">
+      <c r="E14" s="14" t="inlineStr">
         <is>
           <t>anandpk@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="18">
-      <c r="B15" s="17" t="inlineStr">
+    <row r="15" ht="27.75" customHeight="1" s="15">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>j@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="18">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>software Dylan</t>
-        </is>
-      </c>
-      <c r="B16" s="17" t="inlineStr">
+    <row r="16" ht="27.75" customHeight="1" s="15">
+      <c r="A16" s="14" t="inlineStr">
+        <is>
+          <t>software Bryan</t>
+        </is>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
         <is>
           <t>kris@yopmail.com</t>
         </is>
       </c>
-      <c r="C16" s="17" t="inlineStr">
-        <is>
-          <t>MarketingDylan</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" s="18"/>
-    <row r="18" ht="14.25" customHeight="1" s="18"/>
-    <row r="19" ht="14.25" customHeight="1" s="18"/>
-    <row r="20" ht="15" customHeight="1" s="18">
-      <c r="A20" s="29" t="inlineStr">
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>MarketingBryan</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="27.75" customHeight="1" s="15">
+      <c r="A20" s="24" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="18">
-      <c r="A21" s="24" t="inlineStr">
-        <is>
-          <t>CertificatepKqvn</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" s="18"/>
-    <row r="23" ht="14.25" customHeight="1" s="18">
-      <c r="C23" s="24" t="inlineStr">
-        <is>
-          <t>tbchnp8@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="D23" s="17" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="E23" s="17" t="inlineStr">
-        <is>
-          <t>TestXzCECbULOs</t>
-        </is>
-      </c>
-      <c r="F23" s="17" t="inlineStr">
-        <is>
-          <t>6411993924</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="18"/>
-    <row r="25" ht="14.25" customHeight="1" s="18"/>
-    <row r="26" ht="14.25" customHeight="1" s="18"/>
-    <row r="27" ht="14.25" customHeight="1" s="18"/>
-    <row r="28" ht="14.25" customHeight="1" s="18"/>
-    <row r="29" ht="14.25" customHeight="1" s="18"/>
-    <row r="30" ht="13.5" customHeight="1" s="18">
-      <c r="A30" s="33" t="n"/>
-      <c r="B30" s="33" t="n"/>
-      <c r="C30" s="33" t="n"/>
-      <c r="D30" s="33" t="n"/>
-      <c r="E30" s="33" t="n"/>
+    <row r="21" ht="27.75" customHeight="1" s="15">
+      <c r="A21" s="19" t="inlineStr">
+        <is>
+          <t>CertificateqVVdu</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="aravii@yopmail.com" r:id="rId1"/>
+    <hyperlink ref="A2" display="bahly215@mailcatch.com" r:id="rId1"/>
     <hyperlink ref="K2" display="employeeone@yopmail.com" r:id="rId2"/>
     <hyperlink ref="K3" display="employeetwo@yopmail.com" r:id="rId3"/>
     <hyperlink ref="K4" display="employeethree@yopmail.com" r:id="rId4"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -469,7 +469,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="28" customWidth="1" style="14" min="1" max="2"/>
     <col width="32.55" customWidth="1" style="14" min="3" max="3"/>
@@ -531,22 +531,22 @@
     <row r="2" ht="27.75" customHeight="1" s="15">
       <c r="A2" s="19" t="inlineStr">
         <is>
-          <t>z5rqy9s7@mailcatch.com</t>
+          <t>fmx1039h@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>Kylie</t>
+          <t>Xander</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
         <is>
-          <t>Xander Solutions Inc.</t>
+          <t>Samuel Systems LLC</t>
         </is>
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>7465584735</t>
+          <t>7475219009</t>
         </is>
       </c>
       <c r="H2" s="19" t="inlineStr">
